--- a/5-Events and Movement Core 事件和移动核心.xlsx
+++ b/5-Events and Movement Core 事件和移动核心.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
-    <sheet name="开关和变量" sheetId="5" r:id="rId2"/>
-    <sheet name="Note标签" sheetId="1" r:id="rId3"/>
-    <sheet name="插件指令" sheetId="2" r:id="rId4"/>
-    <sheet name="移动路线 - 自定义指令" sheetId="3" r:id="rId5"/>
-    <sheet name="插件参数（略）" sheetId="6" r:id="rId6"/>
+    <sheet name="介绍" sheetId="7" r:id="rId2"/>
+    <sheet name="开关和变量" sheetId="5" r:id="rId3"/>
+    <sheet name="Note标签" sheetId="1" r:id="rId4"/>
+    <sheet name="插件指令" sheetId="2" r:id="rId5"/>
+    <sheet name="移动路线 - 自定义指令" sheetId="3" r:id="rId6"/>
+    <sheet name="插件参数" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,19 +38,6 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
-如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C15" authorId="0">
       <text>
         <r>
@@ -89,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -427,6 +415,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
+如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -437,6 +438,123 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Map ID:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - 地图，0则为当前地图。可以用JS代码
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Event ID:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - 事件ID。0则为当前事件。可使用JS代码
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Icon Index:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - 图标索引。可使用JS代码
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Buffer X:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - X偏移。可使用JS代码
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Buffer Y:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - Y偏移。可使用JS代码
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Blend Mode:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  - 混合模式</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0">
       <text>
         <r>
@@ -563,8 +681,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Map ID:
-</t>
+          <t>Map ID:</t>
         </r>
         <r>
           <rPr>
@@ -572,7 +689,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">  - 地图，0则为当前地图。可以用JS代码
+          <t xml:space="preserve">
+  - 地图，0则为当前地图。可以用JS代码
 </t>
         </r>
         <r>
@@ -582,8 +700,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Event ID:
-</t>
+          <t>Event ID:</t>
         </r>
         <r>
           <rPr>
@@ -591,83 +708,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">  - 事件ID。0则为当前事件。可使用JS代码
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Icon Index:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">  - 图标索引。可使用JS代码
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Buffer X:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">  - X偏移。可使用JS代码
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Buffer Y:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">  - Y偏移。可使用JS代码
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Blend Mode:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">  - 混合模式</t>
+          <t xml:space="preserve">
+  - 事件ID。0则为当前事件。可使用JS代码</t>
         </r>
       </text>
     </comment>
@@ -712,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +763,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Map ID:</t>
+          <t>Step 1:</t>
         </r>
         <r>
           <rPr>
@@ -730,7 +772,43 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-  - 地图，0则为当前地图。可以用JS代码
+  Template Name:  模板名称。如果为"Untitled"则忽略。
+  Map ID:         要用作参考的目标事件的地图。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Event ID:       要使用的目标事件的ID。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -740,7 +818,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Event ID:</t>
+          <t>Step 2:</t>
         </r>
         <r>
           <rPr>
@@ -749,7 +827,308 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-  - 事件ID。0则为当前事件。可使用JS代码</t>
+  X Coordinate:   生成位置的X坐标。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Y Coordinate:   生成位置的Y坐标。可使用JS代码。
+  Check Event Collision:  是否检查与任何其他事件以及玩家的碰撞？
+  Check Passability:  检查目标位置的可通行性。.
+  Preserve Spawn:  是否保存生成的事件？还是在离开地图时过期？
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Success Switch ID:  记录生成成功的目标开关ID。
+        - 如果ID为0，则忽略。 OFF 失败， ON 成功。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Template Name:  模板名称。如果为"Untitled"则忽略。
+  Map ID:         要用作参考的目标事件的地图。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Event ID:       要使用的目标事件的ID。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Region ID(s):   要在哪个区域生成事件？
+  Check Event Collision:  是否检查与任何其他事件以及玩家的碰撞？
+  Check Passability:  检查目标位置的可通行性。.
+  Preserve Spawn:  是否保存生成的事件？还是在离开地图时过期？
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Success Switch ID:  记录生成成功的目标开关ID。
+        - 如果ID为0，则忽略。 OFF 失败， ON 成功。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Template Name:  模板名称。如果为"Untitled"则忽略。
+  Map ID:         要用作参考的目标事件的地图。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Event ID:       要使用的目标事件的ID。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Terrain Tag(s):   要在哪个地形标记处生成事件？（数字：0～7）
+  Check Event Collision:  是否检查与任何其他事件以及玩家的碰撞？
+  Check Passability:  检查目标位置的可通行性。.
+  Preserve Spawn:  是否保存生成的事件？还是在离开地图时过期？
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Step 3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  Success Switch ID:  记录生成成功的目标开关ID。
+        - 如果ID为0，则忽略。 OFF 失败， ON 成功。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Event ID：目标事件ID。</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可使用JS代码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>X Coordinate:   X坐标。可使用JS代码。
+Y Coordinate:   Y坐标。可使用JS代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B78" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Region ID(s)：区域</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Terrain Tag(s):  地形标记（数字0-7）</t>
         </r>
       </text>
     </comment>
@@ -785,7 +1164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="634">
   <si>
     <t>#5 事件和移动核心</t>
   </si>
@@ -1021,16 +1400,129 @@
     <t>Next video, we'll be talking about the VisuStella Item &amp; Equips Core! See you!</t>
   </si>
   <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>事件与移动核心插件在事件灵活性和移动选项方面为RPG Maker MZ添加了许多新功能。
+这些功能包括添加RPG Maker以前迭代的旧功能，以及其他游戏引擎中的更主流技术。
+如果使用VisuStella 8格式，移动选项也会扩展为支持8方向移动以及精灵表。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·事件命令扩展为包括旧功能和新功能。</t>
+  </si>
+  <si>
+    <t>·用于复制事件、变形事件和产生事件的事件模板。</t>
+  </si>
+  <si>
+    <t>·提供8方向移动选项和精灵表支持。</t>
+  </si>
+  <si>
+    <t>·冲刺时倾斜精灵的美学，下面有阴影。</t>
+  </si>
+  <si>
+    <t>·通过自定义“移动路线”命令对事件移动提供路径查找支持。</t>
+  </si>
+  <si>
+    <t>·高级开关和变量支持自动运行代码。</t>
+  </si>
+  <si>
+    <t>·将常规开关和变量转换为自开关和自变量。</t>
+  </si>
+  <si>
+    <t>·在事件上加上 label 和 图标。</t>
+  </si>
+  <si>
+    <t>·允许多种方式触发事件，通过点击、接近或使用Regions（区域）用法。</t>
+  </si>
+  <si>
+    <t>·在任何方向上将事件的点击框大小更改为更大。</t>
+  </si>
+  <si>
+    <t>·同步事件移动选项，以便在玩家/其他事件移动时移动。</t>
+  </si>
+  <si>
+    <t>玩家原地转身的能力。</t>
+  </si>
+  <si>
     <t>注意：标记的开关/变量是相互排斥的。您不能同时使用 &lt;JS&gt;、&lt;Self&gt;、&lt;Map&gt; 或 &lt;Global&gt; 标记它们。</t>
   </si>
   <si>
-    <t>高级开关/变量</t>
+    <t>高级 开关/变量</t>
+  </si>
+  <si>
+    <t>开关和变量现在可以运行JavaScript代码并立即返回值。
+虽然乍一看，这似乎与使用“控制变量”事件命令的“脚本”选项没有什么不同，但它可以用于立即设置“并行常见事件”、“事件页面条件”、“敌方技能条件”和“部队页面条件”的“切换”和/或“变量”条件，而无需发出事件命令。</t>
   </si>
   <si>
     <t>&lt;JS&gt; code &lt;/JS&gt;</t>
   </si>
   <si>
-    <t>开关和变量可以运行JS代码并立即返回值。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+开关和变量可以运行JS代码并立即返回值。</t>
+    </r>
   </si>
   <si>
     <t>开关例
@@ -1040,24 +1532,146 @@
 &lt;JS&gt;$gameParty.members()&lt;/JS&gt;</t>
   </si>
   <si>
-    <t>自开关/变量</t>
+    <t>自 开关/变量</t>
+  </si>
+  <si>
+    <t>RPG Maker MZ默认有4个自开关：A、B、C、D。对于某些类型的游戏，这还不够。
+这个插件让你能够将常规开关转换为自开关，这样你就可以拥有更多。</t>
+  </si>
+  <si>
+    <t>默认情况下，自变量也不存在于RPG Maker MZ中。
+就像使用Switches一样，您可以将常规变量转换为自变量。</t>
   </si>
   <si>
     <t>&lt;Self&gt;</t>
   </si>
   <si>
-    <t>将开关/变量转换为自开关/变量。
-如果 &lt;Self&gt; 标签出现在开关或变量中，那么它将使用仅对该事件唯一的数据。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+将开关/变量转换为自开关/变量。</t>
+    </r>
   </si>
   <si>
     <t>&lt;Self&gt;开关名
 &lt;Self&gt;变量名</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之后，只需像在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件的页面条件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通开关和变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一样使用它们。
+如果＜Self＞标记存在于Switch或Variable的名称中，则它将仅使用该事件独有的数据。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果需要使用脚本调用来获取Self-Switch或Self-Variable的值，可以使用以下脚本调用。</t>
+  </si>
+  <si>
     <t>相关脚本</t>
   </si>
   <si>
-    <t xml:space="preserve">getSelfSwitchValue(mapID, eventID, switchID) </t>
+    <t>getSelfSwitchValue(mapID, eventID, switchID)</t>
   </si>
   <si>
     <t>获取自开关的值</t>
@@ -1095,13 +1709,140 @@
     <t>setSelfVariableValue(12, 34, 56, 88888)</t>
   </si>
   <si>
-    <t>地图开关/变量</t>
+    <t>地图 开关/变量</t>
+  </si>
+  <si>
+    <t>与自开关和自变量类似，地图开关和地图变量是根据玩家当前所在的地图保留数据的开关和变量。
+换句话说，它们是自开关和变量，但适用于地图！</t>
+  </si>
+  <si>
+    <t>默认情况下，RPG Maker MZ中不存在这些功能。
+就像使用自开关和自变量一样，可以使用以下名称标记将常规开关或变量转换为地图开关和地图变量：</t>
   </si>
   <si>
     <t>&lt;Map&gt;</t>
   </si>
   <si>
-    <t>将开关/变量转换为地图开关/变量。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+将开关/变量转换为地图开关/变量。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Map&gt;开关名
+&lt;Map&gt;变量名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之后，只需像在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件的页面条件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通开关和变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一样使用它们。
+如果＜Map＞标记存在于Switch或Variable的名称中，则它将仅使用该地图独有的数据。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果需要使用脚本调用来获取Map Switch或Map Variable的值，可以使用以下脚本调用：</t>
   </si>
   <si>
     <t>getMapSwitchValue(mapID, switchID)</t>
@@ -1119,7 +1860,7 @@
     <t>获取变量开关值</t>
   </si>
   <si>
-    <t xml:space="preserve">getMapVariableValue(6, 9) </t>
+    <t>getMapVariableValue(6, 9)</t>
   </si>
   <si>
     <t>setMapSwitchValue(mapID, switchID, value)</t>
@@ -1353,12 +2094,22 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果转移到同一地图的不同部分，则不会触发。
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果转移到同一地图的不同部分，则不会触发。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 x：公共事件ID</t>
     </r>
   </si>
@@ -1542,6 +2293,11 @@
   </si>
   <si>
     <t>事件和事件页标签</t>
+  </si>
+  <si>
+    <t>以下注释标签有注释标签变体（少数例外）。
+如果某个事件使用了notetag，它将不断影响该事件。
+如果使用了注释标记，它只会影响注释标记所在的页面，也只会影响该页面。</t>
   </si>
   <si>
     <t>&lt;Activation Region: x&gt;
@@ -2477,7 +3233,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>如果使用文本代码，请避免使用&lt;和&gt;包装的文本代码。</t>
+      <t>如果使用文本代码，请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用&lt;和&gt;包装的文本代码。</t>
     </r>
   </si>
   <si>
@@ -2538,7 +3315,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>您可以使用带有＜和＞包装的文本代码。</t>
+      <t>您</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用带有＜和＞包装的文本代码。</t>
     </r>
   </si>
   <si>
@@ -2621,13 +3419,25 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">将此事件的移动范围，设置为：仅可以在 标签 或 页注释 中标记的区域中移动。
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只可在指定区域内移动。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+将此事件的移动范围，设置为：仅可以在 标签 或 页注释 中标记的区域中移动。
 </t>
     </r>
     <r>
@@ -3101,8 +3911,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">运行不同事件的指定页。
-</t>
+      <t xml:space="preserve">远程运行其他事件的页面。
+这将在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当前 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">事件上运行目标事件的页面。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这将意味着，任何“此事件”命令都将应用于使用此插件命令的事件，而不是从中检索页面数据的目标事件。
+将其视为当前事件，使用名为event的目标作为公共事件，类似于RPG Maker 2003的工作方式（对于熟悉它的人来说）。</t>
     </r>
     <r>
       <rPr>
@@ -3180,35 +4023,17 @@
     <t>Event Icon Plugin Commands  事件图标</t>
   </si>
   <si>
-    <t>Event Icon: Change</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更改 出现在事件上的图标。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>指定地图、事件，设置其图标（可以带偏移量）</t>
-    </r>
-  </si>
-  <si>
     <t>Event Icon: Change (Temporary)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">更改事件上显示的图标（临时）
 </t>
     </r>
@@ -3228,6 +4053,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">更改事件上显示的图标（强制）
 </t>
     </r>
@@ -3247,6 +4079,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">删除 出现在事件上的图标。
 </t>
     </r>
@@ -3266,6 +4105,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">恢复 事件上显示的 </t>
     </r>
     <r>
@@ -3341,18 +4187,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">记住事件的位置，以便下次加载地图时，它会重新出现在那里。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Event ID: 目标事件的ID</t>
+      <t xml:space="preserve">记住事件的位置，以便下次加载地图时，它再次出现在那里。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Event ID: 目标事件的ID。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
     </r>
   </si>
   <si>
@@ -3378,9 +4234,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Map ID: 目标地图ID（0：当前地图）
+      <t>Map ID: 目标地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Event ID:目标事件的ID（0：当前事件）</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
   </si>
   <si>
     <t>Event Location: Create</t>
@@ -3405,10 +4291,90 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Map ID:       地图ID（0：当前地图）
-Event ID:     事件ID（0：当前事件）
-X Coordinate: X坐标
-Y Coordinate: Y坐标
+      <t>Map ID:       地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+X Coordinate: X坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Y Coordinate: Y坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Direction:    方向
 </t>
     </r>
@@ -3421,12 +4387,63 @@
         <scheme val="minor"/>
       </rPr>
       <t>Optional:可选
-  Page ID:    页ID，要设置移动路线的事件页。
+  Page ID:    页ID，要设置移动路线的事件页。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   Move Route Index: 如果页ID与页的其余条件匹配，则此事件的移动路径中的点。</t>
     </r>
   </si>
   <si>
     <t>Event Popup Plugin Commands  事件弹出</t>
+  </si>
+  <si>
+    <t>自从事件和移动核心的1.55版本更新以来，你可以使用名为“事件弹出”的新插件命令，它可以在特定目标（如玩家角色或事件）上方创建文本，并移动它。
+这个功能真的是由你自己制作的，Arisu！
+有许多应用程序可以使用它，但前提是您必须更改它的使用方式。
+让我们来看看它们！
+这篇文章将向你展示如何使用弹出窗口显示快速消息，指示获得的物品，向NPC赠送礼物，以及在地图上投掷物品。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件弹出提示和技巧</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://www.yanfly.moe/wiki/Event_Popup_Tips_and_Tricks</t>
+    </r>
   </si>
   <si>
     <t>Event Popup: Player</t>
@@ -3838,6 +4855,16 @@
       </rPr>
       <t>Speed: 每帧增加或减少多少 1/60 秒？  正加负减</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
   </si>
   <si>
     <t>Event Timer: Expire Event Assign</t>
@@ -3868,6 +4895,27 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果设置了默认代码，则跳过该代码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -3899,7 +4947,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>清除所有设置以使公共事件到期，并运行默认的游戏计时器到期代码。</t>
+      <t>清除所有设置为过期的“公共事件”，而是运行默认的Game_Timer到期代码。</t>
     </r>
   </si>
   <si>
@@ -3937,15 +4985,96 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Frames:帧：获得/失去 多少个 1/60 秒。  正：获得  负：失去。
-Seconds/Minutes/Hours: 获得/失去 多少秒/分钟/小时</t>
+      <t>Frames:帧：获得/失去 多少个 1/60 秒。  正：获得  负：失去。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> （可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Seconds/Minutes/Hours: 获得/失去 多少秒/分钟/小时 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
     </r>
   </si>
   <si>
     <t>Event Timer: Frames Set</t>
   </si>
   <si>
-    <t>选择为事件设置的 帧数、秒数、分钟数、小时数。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">选择为事件设置的 帧数、秒数、分钟数、小时数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frames:帧：将帧数计数设置为此值。每帧是 1/60 秒。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Seconds/Minutes/Hours: 获得/失去 多少秒/分钟/小时 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
   </si>
   <si>
     <t>Event Timer: Pause</t>
@@ -3966,13 +5095,54 @@
     <t>Follower: Set Global Chase</t>
   </si>
   <si>
-    <t>启用/禁止 跟随者全局追随？（true/false）</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">启用/禁止 跟随者全局追随？（true/false）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chase:设置所有追随者是否追随玩家？</t>
+    </r>
   </si>
   <si>
     <t>Follower: Set Target Chase</t>
   </si>
   <si>
-    <t>启用/禁止 目标跟随者追随玩家 （true/false）</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">启用/禁止 目标跟随者追随玩家 （true/false）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Follower ID:追随者ID。要禁用/重新启用追随的跟随者ID。
+Chase:设定目标跟随者是否追逐其目标。</t>
+    </r>
   </si>
   <si>
     <t>Follower: Set Control</t>
@@ -3986,7 +5156,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">将事件命令设置为在选择“Player”作为目标时，以跟随者为目标。
+      <t xml:space="preserve">当选择玩家作为目标时，将事件命令设置为以跟随者为目标。
 </t>
     </r>
     <r>
@@ -4032,8 +5202,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Map ID:       地图ID（0：当前地图）
-Event ID:     事件ID（0：当前事件）
+      <t>Map ID:       地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Letter:       从中获取数据的 目标事件自开关的字母
 Target Switch ID:  目标开关ID</t>
     </r>
@@ -4061,8 +5271,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Map ID:       地图ID（0：当前地图）
-Event ID:     事件ID（0：当前事件）
+      <t>Map ID:       地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Switch ID:    源开关ID
 Target Switch ID:  目标开关ID</t>
     </r>
@@ -4074,11 +5324,70 @@
     <t>Global Variable: Get Self Variable ID</t>
   </si>
   <si>
-    <t>从自变量获取当前存储的值，并将其存储到全局变量中。
-Map ID:       地图ID（0：当前地图）
-Event ID:     事件ID（0：当前事件）
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">从自变量获取当前存储的值，并将其存储到全局变量中。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map ID:       地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Variable ID:  源变量ID
 Target Variable ID::  目标变量ID</t>
+    </r>
   </si>
   <si>
     <t>Morph Event Plugin Commands  变形事件</t>
@@ -4088,14 +5397,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>变形事件：更改</t>
     </r>
     <r>
@@ -4128,8 +5429,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Map ID:       目标事件的地图ID（0：当前地图）
-Event ID:     目标事件ID（0：当前事件）
+      <t>Map ID:       目标事件的地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     目标事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -4152,8 +5493,48 @@
       </rPr>
       <t xml:space="preserve">
 Template Name:模板名称。如果 "Untitled" 则忽略
-Map ID:       目标事件的地图。对当前地图使用0。
-Event ID:     目标事件ID（0：当前事件）
+Map ID:       目标事件的地图。（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     目标事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Preserve Morph: 变形效果是否保留？还是在离开地图时过期？</t>
     </r>
   </si>
@@ -4162,13 +5543,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">删除事件的变形状态。
 </t>
     </r>
@@ -4180,8 +5554,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Map ID:       目标事件的地图ID（0：当前地图）
-Event ID:     要远程运行的事件ID（0：当前事件）
+      <t>Map ID:       目标事件的地图ID（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID:     要远程运行的事件ID（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Remove Preservation:  去掉保存效果？</t>
     </r>
   </si>
@@ -4192,7 +5606,83 @@
     <t>Player Icon: Change</t>
   </si>
   <si>
-    <t>更改玩家头上的图标</t>
+    <r>
+      <t xml:space="preserve">更改玩家头上的图标
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Icon Index:图标索引。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Buffer X:缓冲X，X位置移动多少？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Buffer Y:缓冲Y，Y位置移动多少？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Blend Mode:混合模式</t>
+    </r>
   </si>
   <si>
     <t>Player Icon: Delete</t>
@@ -4208,13 +5698,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">重置指定地图内所有事件的自开关和自变量数据。
 </t>
     </r>
@@ -4226,7 +5709,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Map ID:目标地图ID。（0：当前地图）可以使用JavaScript代码</t>
+      <t>Map ID:目标地图ID。（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
     </r>
   </si>
   <si>
@@ -4237,24 +5730,61 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更改其他事件的自开关。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Map ID、Event ID、Letter、Value</t>
+      <t xml:space="preserve">更改不同事件的自开关。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map ID：目标地图的ID。（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID：目标事件的ID。（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Letter：目标事件自开关的字母。（A、B、C、D）
+Value：要将这个自开关设置为什值？（ON、OFF）</t>
     </r>
   </si>
   <si>
@@ -4262,24 +5792,21 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更改其他事件的自开关。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Map ID、Event ID、Switch ID、Value</t>
+      <t xml:space="preserve">更改不同事件的自开关。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map ID：目标地图的ID。（0：当前地图）（可使用js代码）
+Event ID：目标事件的ID。（0：当前事件）（可使用js代码）
+Switch ID：目标开关的ID。
+Value：要将这个自开关设置为什值？（ON、OFF）</t>
     </r>
   </si>
   <si>
@@ -4290,24 +5817,62 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更改其他事件的自变量。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Map ID、Event ID、Variable ID、Value</t>
+      <t xml:space="preserve">更改不同事件的自变量。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map ID：目标地图的ID。（0：当前地图）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Event ID：目标事件的ID。（0：当前事件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可使用js代码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Variable ID：目标变量的ID。
+Operation：操作
+Value：值。</t>
     </r>
   </si>
   <si>
@@ -4317,49 +5882,368 @@
     <t>Spawn Event: Spawn At X, Y</t>
   </si>
   <si>
-    <t>在当前地图的 X、Y 坐标，生成所需的事件。</t>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地图的 X、Y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，生成所需的事件。</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Spawn At Region</t>
   </si>
   <si>
-    <t>在当前地图上标记位置的 随机区域 生成所需事件。</t>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地图上标记位置的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 随机生成所需事件。</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Spawn At Terrain Tag</t>
   </si>
   <si>
-    <t>在当前地图上标记位置的随机 地形标记处 生成所需事件。</t>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地图上标记位置的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地形标记处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 随机生成所需事件。</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Despawn Event ID</t>
   </si>
   <si>
-    <t>取消当前地图上指定ID的生成事件</t>
+    <r>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前地图上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的生成事件</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Despawn At X, Y</t>
   </si>
   <si>
-    <t>取消当前地图上X，Y位置的所有生成事件。</t>
+    <r>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前地图上X，Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的所有生成事件。</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Despawn Region(s)</t>
   </si>
   <si>
-    <t>指定区域，取消生成时间</t>
+    <r>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成事件</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Despawn Terrain Tag(s)</t>
   </si>
   <si>
-    <t>指定地形标记，取消生成事件</t>
+    <r>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地形标记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成事件</t>
+    </r>
   </si>
   <si>
     <t>Spawn Event: Despawn Everything</t>
   </si>
   <si>
-    <t>取消当前地图上所有生成的事件。</t>
+    <r>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前地图上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成的事件。</t>
+    </r>
   </si>
   <si>
     <t>事件指令 - 设置移动路线... - 脚本...</t>
@@ -5151,6 +7035,869 @@
   <si>
     <t>如果上面没有检测到任何命令，则将运行脚本调用。</t>
   </si>
+  <si>
+    <t>Event Label Settings  事件标签设置</t>
+  </si>
+  <si>
+    <t>事件标签是为在事件头上显示文本而创建的小窗口。
+它们是使用&lt;Label&gt;注释标签和/或注释标签设置的。
+事件标签是一种很好的方式，可以将有关事件角色的信息即时传递给玩家。</t>
+  </si>
+  <si>
+    <t>Sprite Based?:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使用基于精灵的标签，而不是传统的窗口版本。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将来将不支持旧窗口版本。
+基于精灵的标签更具内存效率，并且在兼容性方面工作得更好。</t>
+    </r>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Mobile-Enabled?:</t>
+  </si>
+  <si>
+    <t>是否为移动设备启用事件标签？</t>
+  </si>
+  <si>
+    <t>Font Size:</t>
+  </si>
+  <si>
+    <t>字体大小</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Icon Size:</t>
+  </si>
+  <si>
+    <t>图标大小</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Line Height:</t>
+  </si>
+  <si>
+    <t>线条高度</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Offset X:</t>
+  </si>
+  <si>
+    <t>偏移X</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Offset Y:</t>
+  </si>
+  <si>
+    <t>偏移Y</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Fade Speed:</t>
+  </si>
+  <si>
+    <t>淡入淡出速度</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Visible Range:</t>
+  </si>
+  <si>
+    <t>可见范围</t>
+  </si>
+  <si>
+    <t>Event Icon Settings  事件图标设置</t>
+  </si>
+  <si>
+    <t>图标可以通过&lt;Icon&gt;注释标签和/或注释标签显示在事件的头上。
+这些可以用于各种各样的事情，比如让它们看起来像是在携带物品，或者表明它们有特定的角色。</t>
+  </si>
+  <si>
+    <t>Blend Mode:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">混合模式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    - 0 - Normal    普通
+    - 1 - Additive  加法
+    - 2 - Multiply  乘法
+    - 3 - Screen    屏幕</t>
+    </r>
+  </si>
+  <si>
+    <t>Event Template Settings  事件模板设置</t>
+  </si>
+  <si>
+    <t>事件模板允许您存储特定的地图和/或事件数据，以便在有预制集基础的情况下根据需要提供。
+它们类似于预制件，但不是可以单独更改的东西，因为事件模板的一个设置将作为所有使用它们的模板的蓝图。</t>
+  </si>
+  <si>
+    <t>事件模板用于&lt;Copy Event&gt;注释标记、变形事件和生成事件插件命令。</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Preloaded Maps:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">预加载地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将被预加载以用作此插件的模板地图的地图的所有ID的列表。</t>
+    </r>
+  </si>
+  <si>
+    <t>["1"]</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>Event Template List</t>
+  </si>
+  <si>
+    <t>此项目使用的所有事件模板的列表。用于注释标签和插件命令。</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Name:</t>
+  </si>
+  <si>
+    <t>模板的名称。它将被用作注释标签和插件命令的锚点。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Map ID:</t>
+  </si>
+  <si>
+    <t>存储模板事件的地图的ID。这将自动将此ID添加到预加载的列表中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Event ID:</t>
+  </si>
+  <si>
+    <t>模板事件所基于的事件的ID。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS: Pre-Copy:
+  JS: Post-Copy:
+  JS: Pre-Morph:
+  JS: Post-Morph:
+  JS: Pre-Spawn:
+  JS: Post-Spawn:</t>
+  </si>
+  <si>
+    <t>在特定情况下运行的代码。
+该代码将与主事件模板设置插件参数中列出的代码同时出现。
+但是，这些单独条目中列出的那些只会出现在这些特定模板中，并且只有在使用这些模板时才会出现。</t>
+  </si>
+  <si>
+    <t>JS: Pre-Copy:
+JS: Post-Copy:
+JS: Pre-Morph:
+JS: Post-Morph:
+JS: Pre-Spawn:
+JS: Post-Spawn:</t>
+  </si>
+  <si>
+    <t>在特定情况下运行的代码。
+这些是全局的,并为所有副本、变形和/或生成运行。</t>
+  </si>
+  <si>
+    <t>Movement Settings  移动设置</t>
+  </si>
+  <si>
+    <t>这些插件参数允许您控制移动在游戏中的工作方式，将其从4方向切换到8方向，设置规则以在事件或消息存在时停止事件中的自我移动，以及其他美学，如在冲刺时倾斜精灵，在精灵下设置阴影，并允许原地旋转。</t>
+  </si>
+  <si>
+    <t>8 Directional Movement  8方向移动</t>
+  </si>
+  <si>
+    <t>Enable:</t>
+  </si>
+  <si>
+    <t>默认情况下是否允许8方向移动？使玩家可以沿对角线移动。</t>
+  </si>
+  <si>
+    <t>Strict Collision:</t>
+  </si>
+  <si>
+    <r>
+      <t>严格碰撞：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行严格的碰撞规则，玩家必须能够通过两个主要方向？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Favor Horizontal:</t>
+  </si>
+  <si>
+    <r>
+      <t>偏向水平：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果不能对角通过，但可以水平和垂直通过，那么更喜欢水平？</t>
+    </r>
+  </si>
+  <si>
+    <t>Slower Diagonals?</t>
+  </si>
+  <si>
+    <r>
+      <t>较慢的对角线？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斜向移动时，强制降低移动速度？</t>
+    </r>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Speed Multiplier</t>
+  </si>
+  <si>
+    <r>
+      <t>速度系数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对角移动时调整移动速度的乘数是多少？</t>
+    </r>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>Automatic Movement</t>
+  </si>
+  <si>
+    <t>自动移动</t>
+  </si>
+  <si>
+    <t>Stop During Events:</t>
+  </si>
+  <si>
+    <r>
+      <t>事件期间停止：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在事件运行时停止自动事件移动。</t>
+    </r>
+  </si>
+  <si>
+    <t>Stop During Messages:</t>
+  </si>
+  <si>
+    <r>
+      <t>消息期间停止：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在消息运行时停止自动事件移动。</t>
+    </r>
+  </si>
+  <si>
+    <t>Bitmap</t>
+  </si>
+  <si>
+    <t>位图</t>
+  </si>
+  <si>
+    <t>Smoothing:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是否要平滑或像素化贴图精灵？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像素化它们更适合缩放和倾斜。
+true：Smooth（平滑）    false：Pixelated（像素化）</t>
+    </r>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>Dash Modifier:</t>
+  </si>
+  <si>
+    <t>冲刺速度修正。</t>
+  </si>
+  <si>
+    <t>+1.0</t>
+  </si>
+  <si>
+    <t>Dash on Ladder?</t>
+  </si>
+  <si>
+    <t>允许在梯子或绳子上冲刺吗？</t>
+  </si>
+  <si>
+    <t>Enable Dash Tilt?:</t>
+  </si>
+  <si>
+    <t>启用冲刺倾斜？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tilt Left Amount:</t>
+  </si>
+  <si>
+    <t>向左移动（左上、左、左下）时的弧度量</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tilt Right Amount:</t>
+  </si>
+  <si>
+    <t>向右移动（右上、右、右下）时的弧度量</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tilt Vertical Amount:</t>
+  </si>
+  <si>
+    <t>垂直倾斜量：垂直（向下、向下）移动时的量（以弧度为单位）。</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>Event Movement</t>
+  </si>
+  <si>
+    <t>事件移动</t>
+  </si>
+  <si>
+    <t>Random Move Weight:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">随机移动权重：使用0～1之间的数字。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接近1的数字：会更接近其原点。
+0：将禁用。</t>
+    </r>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>Shift Y:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">移位Y：非瓷砖角色应该偏移多少像素？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：向上。正：向下。</t>
+    </r>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>Path Finding</t>
+  </si>
+  <si>
+    <t>寻路</t>
+  </si>
+  <si>
+    <t>为移动设备启用对角线寻路？</t>
+  </si>
+  <si>
+    <t>Shadows</t>
+  </si>
+  <si>
+    <t>阴影</t>
+  </si>
+  <si>
+    <t>Show:</t>
+  </si>
+  <si>
+    <t>在所有事件和与玩家相关的精灵上显示阴影。</t>
+  </si>
+  <si>
+    <t>Default Filename:</t>
+  </si>
+  <si>
+    <t>img/system/文件夹中阴影的默认文件名。</t>
+  </si>
+  <si>
+    <t>Shadow1</t>
+  </si>
+  <si>
+    <t>Turn in Place</t>
+  </si>
+  <si>
+    <t>原地转弯</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当不冲刺的时候，玩家会在移动之前原地转身。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅适用于键盘输入。</t>
+    </r>
+  </si>
+  <si>
+    <t>Delay in Frames:</t>
+  </si>
+  <si>
+    <t>帧数延迟：移动之前要等待的帧数。</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Vehicle Speeds</t>
+  </si>
+  <si>
+    <t>载具速度</t>
+  </si>
+  <si>
+    <t>Boat Speed:</t>
+  </si>
+  <si>
+    <t>小船速度</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Ship Speed:</t>
+  </si>
+  <si>
+    <t>大船速度</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Airship Speed:</t>
+  </si>
+  <si>
+    <t>飞艇速度</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>VisuStella 8-Dir Settings  VS 8方向设置</t>
+  </si>
+  <si>
+    <t>这些是使用VS8格式的精灵工作表的设置。有关VS8格式的更多信息，请参阅上面的帮助部分。</t>
+  </si>
+  <si>
+    <t>Balloon Icon Settings</t>
+  </si>
+  <si>
+    <t>气泡图标设置</t>
+  </si>
+  <si>
+    <t>Auto-Balloon Poses:</t>
+  </si>
+  <si>
+    <t>自动气泡姿势：使用气泡图标时自动设置VS8精灵的姿势。</t>
+  </si>
+  <si>
+    <t>Balloon Offset X:</t>
+  </si>
+  <si>
+    <t>气泡偏移X：将VS8精灵上的气球图标偏移x像素。</t>
+  </si>
+  <si>
+    <t>Balloon Offset Y:</t>
+  </si>
+  <si>
+    <t>气泡偏移Y：将VS8精灵上的气球图标偏移y像素。</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>Auto Buffer:</t>
+  </si>
+  <si>
+    <t>自动缓存：是否自动缓存VS8精灵的X和Y坐标？</t>
+  </si>
+  <si>
+    <t>Use Carry Pose:</t>
+  </si>
+  <si>
+    <t>使用携带姿势：当图标在头顶上移动时，使用carry姿势</t>
+  </si>
+  <si>
+    <t>Region Rulings  区域规则</t>
+  </si>
+  <si>
+    <t>这些设置允许您通过区域的使用来决定玩家、活动和各种交通工具的通行性。</t>
+  </si>
+  <si>
+    <t>Allow Regions
+允许区域</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Allow:    全部允许
+Walk Allow:   步行允许
+    Player Allow: 玩家允许
+    Event Allow:  事件允许
+Vehicle Allow:  载具允许
+    Boat Allow:  小船允许
+    Ship Allow:  大船允许
+    Airship Allow:  飞艇允许
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插入区域ID，使相对应的单位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入其中。
+区域ID的范围从0到255。</t>
+    </r>
+  </si>
+  <si>
+    <t>Forbid Regions
+禁止区域</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Forbid:    全部禁止
+Walk Forbid:   步行禁止
+    Player Forbid:  玩家禁止
+    Event Forbid:   事件禁止
+Vehicle Forbid:  载具禁止
+    Boat Forbid:  小船禁止
+    Ship Forbid:  大船禁止
+    Airship Forbid:  飞艇禁止
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插入区域ID，使相对应的单位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入其中。
+区域ID的范围从0到255。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dock Regions
+停靠区域</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vehicle Dock:    载具停靠
+    Boat Dock:   小船停靠
+    Ship Dock:   大船停靠
+    Airship Dock:  飞艇停靠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插入区域ID，使相对应的载具可以停靠。
+区域ID的范围从0到255。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Only Region Dockable:  仅区域可停靠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载具只能停靠在指定区域。</t>
+    </r>
+  </si>
+  <si>
+    <t>Common Event on OK Button  “确定”按钮上的公共事件</t>
+  </si>
+  <si>
+    <t>这些插件参数允许您设置公共事件，当您站在它们上面或前面按下“确定”按钮时，这些事件将使用区域激活。
+通过这些功能，您可以使用“区域”创建几乎通用的可交互对象，例如启动捕鱼活动的河流或放置物品的位置。</t>
+  </si>
+  <si>
+    <t>Regions 1 - 255:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">此区域激活哪个公共事件？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用0不激活任何公共事件。</t>
+    </r>
+  </si>
+  <si>
+    <t>Target Tile:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">目标瓷砖。
+应在“确定”按钮上检查哪个地砖的“公共事件”？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>front：在玩家面前的瓷砖。
+standing：玩家站在上面的瓷砖。</t>
+    </r>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>Common Event on Touch  触摸公共事件</t>
+  </si>
+  <si>
+    <t>这些插件参数允许您设置当踩到标记有区域的地砖时触发的公共事件。
+这些可以让您创建将要发生的自定义效果，例如自定义伤害地板、陷阱 和/或 事件。</t>
+  </si>
+  <si>
+    <t>标有这些区域的区域将不允许发生随机遭遇。
+这就是RPG Maker的工作原理。
+假设你根本没有使用插件，通过在地图上到处放置触摸事件，带有这些触摸事件的瓦片不会触发随机遭遇。</t>
+  </si>
+  <si>
+    <t>Terrain Tag Settings  地形标记设置</t>
+  </si>
+  <si>
+    <t>地形标签用于 Database =&gt; Tilesets，以标记某些瓷砖，并通过地形标签赋予它们独特的特性。</t>
+  </si>
+  <si>
+    <t>Terrain Tag ID's</t>
+  </si>
+  <si>
+    <t>地形标记ID</t>
+  </si>
+  <si>
+    <t>Rope:</t>
+  </si>
+  <si>
+    <t>绳：绳索使用哪个地形标签编号？</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
@@ -5162,10 +7909,56 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5187,45 +7980,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5255,6 +8017,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5418,16 +8187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5482,22 +8251,56 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5507,13 +8310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5710,12 +8507,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5836,144 +8713,240 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5982,25 +8955,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6009,23 +8982,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6033,29 +8991,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -6063,10 +9048,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6134,16 +9119,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>429260</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>483235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6160,7 +9145,49 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16926560" y="343535"/>
+          <a:off x="17269460" y="1178560"/>
+          <a:ext cx="5715000" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="EventsMoveCoreAdvSwitchesVariables.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12277725" y="1270"/>
           <a:ext cx="5715000" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6221,13 +9248,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1059180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476885</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1123950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6245,7 +9272,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12392025" y="9353550"/>
+          <a:off x="12392025" y="10026650"/>
           <a:ext cx="3210560" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6259,13 +9286,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6283,7 +9310,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="19335750"/>
+          <a:off x="12382500" y="20008850"/>
           <a:ext cx="3895725" cy="2257425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6297,13 +9324,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>13970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6321,7 +9348,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12363450" y="19178270"/>
+          <a:off x="12363450" y="19851370"/>
           <a:ext cx="2743200" cy="1081405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6335,13 +9362,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1423035</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6359,7 +9386,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12401550" y="22317075"/>
+          <a:off x="12401550" y="22990175"/>
           <a:ext cx="1365885" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6373,14 +9400,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6397,7 +9424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12296775" y="24117300"/>
+          <a:off x="12296775" y="24790400"/>
           <a:ext cx="2800350" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6420,13 +9447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5467350</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6943725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6444,7 +9471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8505825" y="3819525"/>
+          <a:off x="8505825" y="4162425"/>
           <a:ext cx="1476375" cy="1019810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6795,320 +9822,320 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="95.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="73.625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="95.125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="73.625" style="45" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="45" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="45" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="45" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="45" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="45" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7121,174 +10148,359 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="55.125" customWidth="1"/>
-    <col min="3" max="3" width="40.875" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="109.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:1">
+      <c r="A1" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="2:2">
+      <c r="B2" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:1">
+      <c r="A3" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="55.125" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
+    <col min="5" max="5" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" ht="81" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:3">
-      <c r="A6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="A1" s="60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="12" t="s">
+    <row r="2" ht="20.25" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" ht="59" customHeight="1" spans="2:4">
+      <c r="B3" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" ht="81" spans="2:5">
+      <c r="B4" s="44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="12" t="s">
+      <c r="C4" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E4" s="44"/>
+    </row>
+    <row r="6" ht="20.25" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="2:4">
+      <c r="B7" s="56" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="2:4">
+      <c r="B8" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="2:4">
+      <c r="B9" s="44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C9" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="10" ht="46" customHeight="1" spans="2:4">
+      <c r="B10" s="56" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="12" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" ht="22" customHeight="1" spans="2:4">
+      <c r="B11" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" ht="27" spans="2:5">
+      <c r="B12" s="67" t="s">
         <v>107</v>
       </c>
+      <c r="C12" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="67"/>
+      <c r="C13" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="2:5">
+      <c r="B14" s="67"/>
+      <c r="C14" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="67"/>
+      <c r="C15" s="44" t="s">
+        <v>117</v>
+      </c>
       <c r="D15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" ht="20.25" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" customFormat="1" ht="41" customHeight="1" spans="2:4">
+      <c r="B18" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+    </row>
+    <row r="19" customFormat="1" ht="41" customHeight="1" spans="2:4">
+      <c r="B19" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="2:4">
+      <c r="B20" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1" spans="2:4">
+      <c r="B21" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="2:4">
+      <c r="B22" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="67"/>
+      <c r="C24" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:5">
+      <c r="B25" s="67"/>
+      <c r="C25" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="67"/>
+      <c r="C26" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A14:A17"/>
+  <mergeCells count="11">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7296,13 +10508,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7313,1045 +10525,550 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" spans="1:4">
-      <c r="A1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+    <row r="1" s="27" customFormat="1" spans="1:4">
+      <c r="A1" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
+      <c r="A2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="178.5" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>120</v>
+      <c r="A3" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>121</v>
+        <v>143</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>123</v>
+      <c r="A4" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="61.5" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>127</v>
+      <c r="A6" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>129</v>
+      <c r="A7" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" s="21" customFormat="1" spans="1:4">
-      <c r="A9" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" s="27" customFormat="1" spans="1:4">
+      <c r="A9" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" ht="67.5" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>131</v>
+      <c r="A10" s="36" t="s">
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:3">
       <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>159</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" ht="144" spans="1:3">
-      <c r="A12" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" s="21" customFormat="1" spans="1:4">
-      <c r="A13" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" ht="73.5" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" ht="97.5" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>144</v>
+      <c r="A12" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="59"/>
+    </row>
+    <row r="13" s="27" customFormat="1" spans="1:4">
+      <c r="A13" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+    </row>
+    <row r="14" customFormat="1" ht="53" customHeight="1" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" ht="73.5" spans="1:3">
+      <c r="A15" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:3">
-      <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" ht="97.5" spans="1:3">
+      <c r="A16" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:3">
       <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>171</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" ht="63" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" ht="169.5" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" ht="157.5" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" ht="63" spans="1:3">
+      <c r="A19" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" ht="169.5" spans="1:3">
+      <c r="A20" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" ht="157.5" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>157</v>
+      <c r="A21" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" ht="73.5" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" ht="54" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:3">
-      <c r="A25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" ht="157.5" spans="1:3">
+      <c r="A22" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" ht="73.5" spans="1:3">
+      <c r="A23" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" ht="54" spans="1:3">
+      <c r="A25" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" ht="108" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:3">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" ht="54" spans="1:3">
-      <c r="A27" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>169</v>
+    </row>
+    <row r="27" ht="108" spans="1:3">
+      <c r="A27" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" ht="25.5" spans="1:3">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="1:3">
+      <c r="A28" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" spans="1:3">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:3">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="1:3">
+      <c r="A30" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" ht="108" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:3">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" ht="49.5" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" ht="108" spans="1:3">
+      <c r="A32" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" ht="49.5" spans="1:3">
+      <c r="A33" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:3">
+      <c r="A35" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" ht="135" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:3">
+      <c r="A36" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" ht="39" spans="1:3">
-      <c r="A37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" ht="135" spans="1:3">
+      <c r="A37" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>213</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" ht="25.5" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" ht="39" spans="1:3">
       <c r="A38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" ht="61.5" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" spans="1:3">
       <c r="A39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>193</v>
+        <v>216</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>195</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" ht="61.5" spans="1:3">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" ht="121.5" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:3">
+      <c r="A41" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" ht="37.5" spans="1:3">
-      <c r="A42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>199</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" ht="121.5" spans="1:3">
+      <c r="A42" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>223</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" ht="52.5" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" ht="37.5" spans="1:3">
       <c r="A43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" ht="52.5" spans="1:3">
       <c r="A44" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>227</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:3">
       <c r="A45" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:3">
       <c r="A46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" ht="54" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>230</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" t="s">
-        <v>211</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" ht="54" spans="1:3">
+      <c r="A48" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" ht="108" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>213</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s">
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" ht="135" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" ht="108" spans="1:3">
+      <c r="A50" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C80"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="102.125" customWidth="1"/>
-    <col min="3" max="3" width="77.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="13" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A1" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" s="13" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" ht="49.5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" s="13" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" spans="1:2">
-      <c r="A12" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" spans="1:2">
-      <c r="A13" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" spans="1:2">
-      <c r="A14" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" ht="135" spans="1:3">
+      <c r="A51" s="36" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="21" ht="18.75" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="B51" s="35" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="22" ht="25.5" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" spans="1:2">
-      <c r="A23" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" ht="121.5" spans="1:2">
-      <c r="A24" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" ht="49.5" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" ht="63" spans="1:3">
-      <c r="A28" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" ht="63" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" ht="75" spans="1:3">
-      <c r="A30" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="32" ht="18.75" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" spans="1:2">
-      <c r="A34" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A41" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B43" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" spans="1:2">
-      <c r="A44" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" ht="61.5" spans="1:2">
-      <c r="A48" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" ht="61.5" spans="1:2">
-      <c r="A49" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" ht="67.5" spans="1:2">
-      <c r="A52" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" ht="112.5" spans="1:2">
-      <c r="A55" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" ht="49.5" spans="1:2">
-      <c r="A56" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B59" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="12"/>
-    </row>
-    <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" ht="25.5" spans="1:2">
-      <c r="A63" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B74" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B75" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B77" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B79" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B80" t="s">
-        <v>327</v>
+      <c r="C51" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8364,10 +11081,520 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="102.125" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="45" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A1" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" s="45" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" ht="90" spans="1:2">
+      <c r="A5" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" s="45" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:1">
+      <c r="A10" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:2">
+      <c r="A11" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" spans="1:2">
+      <c r="A12" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:2">
+      <c r="A13" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:1">
+      <c r="A16" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:1">
+      <c r="A20" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="1:2">
+      <c r="A21" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" ht="37.5" spans="1:2">
+      <c r="A22" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" ht="121.5" spans="1:2">
+      <c r="A23" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A25" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="83" customHeight="1" spans="1:3">
+      <c r="A26" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" ht="49.5" spans="1:3">
+      <c r="A27" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" ht="63" spans="1:3">
+      <c r="A28" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="51"/>
+    </row>
+    <row r="29" ht="63" spans="1:3">
+      <c r="A29" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" ht="75" spans="1:3">
+      <c r="A30" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="51"/>
+    </row>
+    <row r="32" ht="18.75" spans="1:1">
+      <c r="A32" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" spans="1:2">
+      <c r="A33" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" ht="39" spans="1:2">
+      <c r="A34" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" ht="51" spans="1:2">
+      <c r="A36" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" ht="37.5" spans="1:2">
+      <c r="A37" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="44"/>
+    </row>
+    <row r="41" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A41" s="34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" spans="1:2">
+      <c r="A42" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" ht="37.5" spans="1:2">
+      <c r="A43" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" spans="1:2">
+      <c r="A44" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" spans="1:1">
+      <c r="A47" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" ht="61.5" spans="1:2">
+      <c r="A48" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" ht="61.5" spans="1:2">
+      <c r="A49" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" spans="1:1">
+      <c r="A51" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" ht="61.5" spans="1:2">
+      <c r="A52" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="1:1">
+      <c r="A54" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" ht="112.5" spans="1:2">
+      <c r="A55" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" ht="49.5" spans="1:2">
+      <c r="A56" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" spans="1:1">
+      <c r="A58" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" ht="61.5" spans="1:2">
+      <c r="A59" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:1">
+      <c r="A62" s="34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" spans="1:2">
+      <c r="A63" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" spans="1:1">
+      <c r="A65" s="34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" ht="61.5" spans="1:2">
+      <c r="A66" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" ht="61.5" spans="1:2">
+      <c r="A67" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" spans="1:1">
+      <c r="A69" s="34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" ht="73.5" spans="1:2">
+      <c r="A70" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" spans="1:1">
+      <c r="A72" s="34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C27:C30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId4" display="事件弹出提示和技巧&#10;http://www.yanfly.moe/wiki/Event_Popup_Tips_and_Tricks"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8378,457 +11605,457 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>328</v>
+      <c r="A1" s="34" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:2">
       <c r="A2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>355</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="229.5" spans="1:3">
       <c r="A3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>333</v>
+        <v>357</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" ht="49.5" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>335</v>
+      <c r="A4" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>337</v>
+      <c r="A5" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>338</v>
+      <c r="A6" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>341</v>
+      <c r="A7" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>344</v>
+      <c r="A9" s="36" t="s">
+        <v>370</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="5" customHeight="1"/>
+        <v>380</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" s="33" customFormat="1" ht="5" customHeight="1"/>
     <row r="16" ht="108" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>357</v>
+      <c r="A16" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="17" ht="108" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>359</v>
+      <c r="A17" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:3">
       <c r="A18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>362</v>
+        <v>386</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="19" ht="25.5" spans="1:3">
       <c r="A19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>389</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>392</v>
+      </c>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>394</v>
+      </c>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>396</v>
+      </c>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" ht="37.5" spans="1:3">
       <c r="A23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>397</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" ht="49.5" spans="1:3">
       <c r="A24" t="s">
-        <v>373</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>399</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" ht="108" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>375</v>
+      <c r="A25" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="5" customHeight="1"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" s="33" customFormat="1" ht="5" customHeight="1"/>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>379</v>
+      <c r="A28" s="36" t="s">
+        <v>405</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>386</v>
+      <c r="A31" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B32" t="s">
+        <v>414</v>
+      </c>
+      <c r="C32" s="38" t="s">
         <v>388</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>416</v>
+      </c>
+      <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" s="7"/>
+        <v>418</v>
+      </c>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" ht="25.5" spans="1:3">
       <c r="A35" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>419</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" s="7"/>
+        <v>422</v>
+      </c>
+      <c r="C36" s="39"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="B37" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>424</v>
+      </c>
+      <c r="C37" s="39"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
-      </c>
-      <c r="C38" s="7"/>
+        <v>426</v>
+      </c>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B39" t="s">
-        <v>402</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>403</v>
+        <v>428</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
-      </c>
-      <c r="C40" s="9"/>
+        <v>431</v>
+      </c>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
-      </c>
-      <c r="C41" s="9"/>
+        <v>433</v>
+      </c>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>408</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="C42" s="43"/>
     </row>
     <row r="43" ht="25.5" spans="1:3">
       <c r="A43" t="s">
-        <v>410</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>436</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B44" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>403</v>
+        <v>439</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
-        <v>415</v>
-      </c>
-      <c r="C45" s="9"/>
+        <v>441</v>
+      </c>
+      <c r="C45" s="41"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
-      </c>
-      <c r="C46" s="9"/>
+        <v>443</v>
+      </c>
+      <c r="C46" s="41"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>418</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C47" s="9"/>
+        <v>444</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C47" s="41"/>
     </row>
     <row r="48" ht="54" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>421</v>
+      <c r="A48" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>423</v>
+      <c r="A49" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="50" ht="37.5" spans="1:2">
       <c r="A50" t="s">
-        <v>424</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>425</v>
+        <v>450</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>432</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>433</v>
+        <v>458</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="12" t="s">
-        <v>434</v>
+      <c r="A56" s="44" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8846,17 +12073,954 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="37.5" spans="1:3">
+      <c r="A3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" ht="61.5" spans="1:3">
+      <c r="A17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" ht="25.5" spans="1:3">
+      <c r="A23" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" ht="81" spans="1:5">
+      <c r="A29" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" ht="81" spans="1:5">
+      <c r="A30" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="32" ht="20.25" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="33" customHeight="1" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>520</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>522</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>532</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" ht="37.5" spans="1:3">
+      <c r="A44" t="s">
+        <v>538</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>542</v>
+      </c>
+      <c r="B46" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>545</v>
+      </c>
+      <c r="B47" t="s">
+        <v>546</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>547</v>
+      </c>
+      <c r="B48" t="s">
+        <v>548</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>549</v>
+      </c>
+      <c r="B49" t="s">
+        <v>550</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>552</v>
+      </c>
+      <c r="B50" t="s">
+        <v>553</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>555</v>
+      </c>
+      <c r="B51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" ht="37.5" spans="1:3">
+      <c r="A53" t="s">
+        <v>560</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" spans="1:3">
+      <c r="A54" t="s">
+        <v>563</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>466</v>
+      </c>
+      <c r="B56" t="s">
+        <v>568</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>571</v>
+      </c>
+      <c r="B58" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>573</v>
+      </c>
+      <c r="B59" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" ht="25.5" spans="1:3">
+      <c r="A61" t="s">
+        <v>518</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>579</v>
+      </c>
+      <c r="B62" t="s">
+        <v>580</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>584</v>
+      </c>
+      <c r="B64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>587</v>
+      </c>
+      <c r="B65" t="s">
+        <v>588</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>590</v>
+      </c>
+      <c r="B66" t="s">
+        <v>591</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68" ht="20.25" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>597</v>
+      </c>
+      <c r="B71" t="s">
+        <v>598</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>599</v>
+      </c>
+      <c r="B72" t="s">
+        <v>600</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>601</v>
+      </c>
+      <c r="B73" t="s">
+        <v>602</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>605</v>
+      </c>
+      <c r="B75" t="s">
+        <v>606</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>607</v>
+      </c>
+      <c r="B76" t="s">
+        <v>608</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" ht="20.25" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" ht="159" spans="1:2">
+      <c r="A80" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="81" ht="159" spans="1:2">
+      <c r="A81" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82" ht="118.5" spans="1:2">
+      <c r="A82" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="84" ht="20.25" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" ht="30" customHeight="1" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" ht="25.5" spans="1:2">
+      <c r="A86" t="s">
+        <v>619</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="87" ht="51" spans="1:3">
+      <c r="A87" t="s">
+        <v>621</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" ht="20.25" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" ht="37" customHeight="1" spans="1:5">
+      <c r="A90" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" ht="42" customHeight="1" spans="1:5">
+      <c r="A91" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+    </row>
+    <row r="92" ht="25.5" spans="1:2">
+      <c r="A92" t="s">
+        <v>619</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" ht="20.25" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>631</v>
+      </c>
+      <c r="B97" t="s">
+        <v>632</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A95:E95"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/5-Events and Movement Core 事件和移动核心.xlsx
+++ b/5-Events and Movement Core 事件和移动核心.xlsx
@@ -1164,7 +1164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="648">
   <si>
     <t>#5 事件和移动核心</t>
   </si>
@@ -1880,6 +1880,542 @@
   </si>
   <si>
     <t>setMapVariableValue(6, 9, 420)</t>
+  </si>
+  <si>
+    <t>角色精灵文件名标记</t>
+  </si>
+  <si>
+    <t>对于位于 /img/characters/ 文件夹中的文件，如果文件名本身具有特定的“tags”，则会对其应用特殊属性。
+除了少数例外，这些标签可以组合在一起。</t>
+  </si>
+  <si>
+    <t>其中一些是VisuStella MZ的新功能，而另一些则是MZ的默认功能。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标记：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+使该角色的精灵与瓦片网格对齐，而不是提升几个像素。
+·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这主要用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>箱子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等物品。
+·RPG Maker MZ 默认</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标记：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+使该角色的精灵使用"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"格式。
+·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主要用于像</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大怪物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样的精灵，它们只有3x4个单元，而普通精灵表只有12x8个单元。
+·不能与[VS8]标记组合。
+·RPG Maker MZ 默认</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Invisible]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标记：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Invisible]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Inv]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这个角色的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>精灵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将在游戏中的地图屏幕上变得</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不可见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而它的几乎所有其他东西都是可见的。
+·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这适用于那些希望将精灵标签用于诸如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并行事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之类的事情的人。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VS8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标记：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VS8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+使将此精灵转换为VisuStella样式的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8方向精灵表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·请参阅下面章节
+·不能与$标记组合。</t>
+    </r>
+  </si>
+  <si>
+    <t>VisuStella-Style 8-Directional Sprite Sheets</t>
+  </si>
+  <si>
+    <t>（略）</t>
+  </si>
+  <si>
+    <t>Weighted Random Movement</t>
   </si>
   <si>
     <t>Map Notetags  地图标签</t>
@@ -3719,7 +4255,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">随机移动权重。
-如果此标记用于具有随机类型自主移动的事件，则该事件将粘贴到更靠近其柱位置（它们在地图上繁殖时所处的位置）的位置。他们离出生点的距离将取决于权重值 x。
+如果此标记用于具有随机类型自主移动的事件，则该事件将粘贴到更靠近其柱位置（它们在地图上生成时所处的位置）的位置。他们离出生点的距离将取决于权重值 x。
 </t>
     </r>
     <r>
@@ -5397,6 +5933,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>变形事件：更改</t>
     </r>
     <r>
@@ -5543,6 +6087,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">删除事件的变形状态。
 </t>
     </r>
@@ -5607,6 +6158,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">更改玩家头上的图标
 </t>
     </r>
@@ -5698,6 +6256,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">重置指定地图内所有事件的自开关和自变量数据。
 </t>
     </r>
@@ -5730,6 +6295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">更改不同事件的自开关。
 </t>
     </r>
@@ -5792,6 +6364,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">更改不同事件的自开关。
 </t>
     </r>
@@ -5817,6 +6396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">更改不同事件的自变量。
 </t>
     </r>
@@ -5883,6 +6469,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -5933,6 +6526,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -5983,6 +6583,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -6033,6 +6640,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>取消</t>
     </r>
     <r>
@@ -6072,6 +6687,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>取消</t>
     </r>
     <r>
@@ -6111,6 +6734,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>指定</t>
     </r>
     <r>
@@ -6161,6 +6791,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>指定</t>
     </r>
     <r>
@@ -6211,6 +6848,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>取消</t>
     </r>
     <r>
@@ -7048,6 +7693,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">使用基于精灵的标签，而不是传统的窗口版本。
 </t>
     </r>
@@ -7144,6 +7796,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">混合模式
 </t>
     </r>
@@ -7182,6 +7841,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">预加载地图
 </t>
     </r>
@@ -7277,6 +7943,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>严格碰撞：</t>
     </r>
     <r>
@@ -7295,6 +7969,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>偏向水平：</t>
     </r>
     <r>
@@ -7313,6 +7995,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>较慢的对角线？</t>
     </r>
     <r>
@@ -7334,6 +8024,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>速度系数：</t>
     </r>
     <r>
@@ -7361,6 +8059,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>事件期间停止：</t>
     </r>
     <r>
@@ -7379,6 +8085,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>消息期间停止：</t>
     </r>
     <r>
@@ -7403,6 +8117,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">是否要平滑或像素化贴图精灵？
 </t>
     </r>
@@ -7483,6 +8204,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">随机移动权重：使用0～1之间的数字。
 </t>
     </r>
@@ -7506,6 +8234,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">移位Y：非瓷砖角色应该偏移多少像素？
 </t>
     </r>
@@ -7561,6 +8296,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当不冲刺的时候，玩家会在移动之前原地转身。
 </t>
     </r>
@@ -7677,6 +8419,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">All Allow:    全部允许
 Walk Allow:   步行允许
     Player Allow: 玩家允许
@@ -7726,6 +8475,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">All Forbid:    全部禁止
 Walk Forbid:   步行禁止
     Player Forbid:  玩家禁止
@@ -7775,6 +8531,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Vehicle Dock:    载具停靠
     Boat Dock:   小船停靠
     Ship Dock:   大船停靠
@@ -7827,6 +8590,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">此区域激活哪个公共事件？
 </t>
     </r>
@@ -7846,6 +8616,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">目标瓷砖。
 应在“确定”按钮上检查哪个地砖的“公共事件”？
 </t>
@@ -8843,7 +9620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8949,12 +9726,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8999,12 +9770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9145,7 +9910,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17269460" y="1178560"/>
+          <a:off x="17688560" y="1178560"/>
           <a:ext cx="5715000" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9187,7 +9952,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12277725" y="1270"/>
+          <a:off x="12696825" y="1270"/>
           <a:ext cx="5715000" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9822,320 +10587,320 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="95.125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="73.625" style="45" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="95.125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="73.625" style="43" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="43" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="43" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10151,7 +10916,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -10166,7 +10931,7 @@
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -10244,23 +11009,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="55.125" customWidth="1"/>
     <col min="4" max="4" width="40.875" customWidth="1"/>
     <col min="5" max="5" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>93</v>
       </c>
     </row>
@@ -10268,125 +11033,125 @@
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" ht="59" customHeight="1" spans="2:4">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" ht="81" spans="2:5">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" ht="20.25" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="2:4">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="2:4">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" ht="60" customHeight="1" spans="2:4">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" ht="46" customHeight="1" spans="2:4">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" ht="22" customHeight="1" spans="2:4">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" ht="27" spans="2:5">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="42" t="s">
         <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="67"/>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="51" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" ht="27" spans="2:5">
-      <c r="B14" s="67"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="51" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="67"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="42" t="s">
         <v>117</v>
       </c>
       <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="64" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10394,102 +11159,181 @@
       <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" customFormat="1" ht="41" customHeight="1" spans="2:4">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" customFormat="1" ht="41" customHeight="1" spans="2:4">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="2:4">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" ht="39" customHeight="1" spans="2:4">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="2:4">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="42" t="s">
         <v>128</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="64" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="67"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="42" t="s">
         <v>131</v>
       </c>
       <c r="D24" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="42" t="s">
         <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="51" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="67"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="42" t="s">
         <v>137</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="64" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="28" ht="20.25" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="2:2">
+      <c r="B29" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" ht="52.5" spans="2:3">
+      <c r="B31" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" ht="76.5" spans="2:3">
+      <c r="B32" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" ht="66" spans="2:3">
+      <c r="B33" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" ht="51" spans="2:3">
+      <c r="B34" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" ht="20.25" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" ht="20.25" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
@@ -10499,6 +11343,8 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B23:B26"/>
   </mergeCells>
@@ -10513,8 +11359,8 @@
   <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10526,544 +11372,544 @@
   </cols>
   <sheetData>
     <row r="1" s="27" customFormat="1" spans="1:4">
-      <c r="A1" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>142</v>
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="178.5" spans="1:4">
-      <c r="A3" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>145</v>
+      <c r="A3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>146</v>
+        <v>157</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:4">
-      <c r="A4" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>148</v>
+      <c r="A4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="55"/>
+        <v>157</v>
+      </c>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="61.5" spans="1:3">
-      <c r="A6" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>152</v>
+      <c r="A6" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:3">
-      <c r="A7" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>154</v>
+      <c r="A7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" s="27" customFormat="1" spans="1:4">
-      <c r="A9" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" ht="67.5" spans="1:3">
-      <c r="A10" s="36" t="s">
-        <v>156</v>
+      <c r="A10" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>158</v>
+        <v>171</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:3">
       <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>158</v>
+        <v>173</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="12" ht="144" spans="1:3">
-      <c r="A12" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="59"/>
+      <c r="A12" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" s="27" customFormat="1" spans="1:4">
-      <c r="A13" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="1" ht="53" customHeight="1" spans="1:3">
-      <c r="A14" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" ht="73.5" spans="1:3">
-      <c r="A15" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>167</v>
+      <c r="A15" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" ht="97.5" spans="1:3">
-      <c r="A16" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>170</v>
+      <c r="A16" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:3">
       <c r="A17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>172</v>
+        <v>185</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" ht="63" spans="1:3">
-      <c r="A19" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>177</v>
+      <c r="A19" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="20" ht="169.5" spans="1:3">
-      <c r="A20" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>179</v>
+      <c r="A20" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" ht="157.5" spans="1:3">
-      <c r="A21" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>181</v>
+      <c r="A21" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="157.5" spans="1:3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="23" ht="73.5" spans="1:3">
-      <c r="A23" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>177</v>
+      <c r="A23" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>177</v>
+      <c r="A24" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:3">
-      <c r="A25" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>189</v>
+      <c r="A25" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:3">
       <c r="A26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>191</v>
+        <v>204</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="108" spans="1:3">
-      <c r="A27" s="36" t="s">
-        <v>192</v>
+      <c r="A27" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:3">
-      <c r="A28" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>195</v>
+      <c r="A28" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:3">
       <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>197</v>
+        <v>210</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:3">
-      <c r="A30" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>199</v>
+      <c r="A30" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:3">
       <c r="A31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>201</v>
+        <v>214</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" ht="108" spans="1:3">
-      <c r="A32" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>203</v>
+      <c r="A32" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="1:3">
-      <c r="A33" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>205</v>
+      <c r="A33" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>207</v>
+      <c r="A34" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:3">
-      <c r="A35" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>209</v>
+      <c r="A35" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:3">
-      <c r="A36" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>211</v>
+      <c r="A36" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" ht="135" spans="1:3">
-      <c r="A37" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>213</v>
+      <c r="A37" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" ht="39" spans="1:3">
       <c r="A38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>215</v>
+        <v>228</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" ht="25.5" spans="1:3">
       <c r="A39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>217</v>
+        <v>230</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" ht="61.5" spans="1:3">
       <c r="A40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>219</v>
+        <v>232</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:3">
-      <c r="A41" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>221</v>
+      <c r="A41" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" ht="121.5" spans="1:3">
-      <c r="A42" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>223</v>
+      <c r="A42" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" ht="37.5" spans="1:3">
       <c r="A43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>225</v>
+        <v>238</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" ht="52.5" spans="1:3">
       <c r="A44" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>227</v>
+        <v>240</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:3">
       <c r="A45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>229</v>
+        <v>242</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:3">
       <c r="A46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>177</v>
+        <v>244</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" ht="54" spans="1:3">
-      <c r="A48" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>235</v>
+      <c r="A48" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" ht="108" spans="1:3">
-      <c r="A50" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>239</v>
+      <c r="A50" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" ht="135" spans="1:3">
-      <c r="A51" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>241</v>
+      <c r="A51" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -11083,8 +11929,8 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11094,482 +11940,482 @@
     <col min="3" max="3" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A1" s="46" t="s">
-        <v>242</v>
+    <row r="1" s="43" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A1" s="44" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>243</v>
+      <c r="A2" s="42" t="s">
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" s="45" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="46" t="s">
-        <v>245</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" s="43" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="44" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="5" ht="90" spans="1:2">
-      <c r="A5" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" s="45" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="46" t="s">
-        <v>248</v>
+      <c r="A5" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" s="43" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="44" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="44" t="s">
-        <v>249</v>
+      <c r="A8" s="42" t="s">
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:1">
       <c r="A10" s="34" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:2">
-      <c r="A11" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>253</v>
+      <c r="A11" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:2">
-      <c r="A12" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>255</v>
+      <c r="A12" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13" ht="25.5" spans="1:2">
-      <c r="A13" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>257</v>
+      <c r="A13" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>259</v>
+      <c r="A14" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:1">
       <c r="A16" s="34" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="44" t="s">
-        <v>261</v>
+      <c r="A17" s="42" t="s">
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="44" t="s">
-        <v>263</v>
+      <c r="A18" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:1">
       <c r="A20" s="34" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:2">
-      <c r="A21" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>267</v>
+      <c r="A21" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="22" ht="37.5" spans="1:2">
-      <c r="A22" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>269</v>
+      <c r="A22" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" ht="121.5" spans="1:2">
-      <c r="A23" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>271</v>
+      <c r="A23" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" customFormat="1" ht="18.75" spans="1:1">
       <c r="A25" s="34" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="83" customHeight="1" spans="1:3">
-      <c r="A26" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
-        <v>274</v>
+      <c r="A26" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:3">
-      <c r="A27" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>277</v>
+      <c r="A27" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="28" ht="63" spans="1:3">
-      <c r="A28" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" s="51"/>
+      <c r="A28" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="49"/>
     </row>
     <row r="29" ht="63" spans="1:3">
-      <c r="A29" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C29" s="51"/>
+      <c r="A29" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="49"/>
     </row>
     <row r="30" ht="75" spans="1:3">
-      <c r="A30" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="51"/>
+      <c r="A30" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="49"/>
     </row>
     <row r="32" ht="18.75" spans="1:1">
       <c r="A32" s="34" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>286</v>
+      <c r="A33" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="34" ht="39" spans="1:2">
-      <c r="A34" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>288</v>
+      <c r="A34" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="44" t="s">
-        <v>289</v>
+      <c r="A35" s="42" t="s">
+        <v>303</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>292</v>
+      <c r="A36" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="37" ht="37.5" spans="1:2">
-      <c r="A37" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>294</v>
+      <c r="A37" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="44" t="s">
-        <v>295</v>
+      <c r="A38" s="42" t="s">
+        <v>309</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="44" t="s">
-        <v>297</v>
+      <c r="A39" s="42" t="s">
+        <v>311</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="44"/>
+      <c r="A40" s="42"/>
     </row>
     <row r="41" customFormat="1" ht="18.75" spans="1:1">
       <c r="A41" s="34" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" ht="25.5" spans="1:2">
-      <c r="A42" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>301</v>
+      <c r="A42" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="43" ht="37.5" spans="1:2">
-      <c r="A43" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>303</v>
+      <c r="A43" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="44" ht="25.5" spans="1:2">
-      <c r="A44" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>305</v>
+      <c r="A44" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="44" t="s">
-        <v>306</v>
+      <c r="A45" s="42" t="s">
+        <v>320</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:1">
       <c r="A47" s="34" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" ht="61.5" spans="1:2">
-      <c r="A48" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>310</v>
+      <c r="A48" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="49" ht="61.5" spans="1:2">
-      <c r="A49" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>312</v>
+      <c r="A49" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:1">
       <c r="A51" s="34" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" ht="61.5" spans="1:2">
-      <c r="A52" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>315</v>
+      <c r="A52" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:1">
       <c r="A54" s="34" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" ht="112.5" spans="1:2">
-      <c r="A55" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>318</v>
+      <c r="A55" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="56" ht="49.5" spans="1:2">
-      <c r="A56" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>320</v>
+      <c r="A56" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:1">
       <c r="A58" s="34" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" ht="61.5" spans="1:2">
-      <c r="A59" s="44" t="s">
-        <v>322</v>
+      <c r="A59" s="42" t="s">
+        <v>336</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="44" t="s">
-        <v>324</v>
+      <c r="A60" s="42" t="s">
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="44"/>
+      <c r="A61" s="42"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
       <c r="A62" s="34" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" ht="25.5" spans="1:2">
-      <c r="A63" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>328</v>
+      <c r="A63" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:1">
       <c r="A65" s="34" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" ht="61.5" spans="1:2">
-      <c r="A66" s="44" t="s">
-        <v>330</v>
+      <c r="A66" s="42" t="s">
+        <v>344</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" ht="61.5" spans="1:2">
-      <c r="A67" s="44" t="s">
-        <v>332</v>
+      <c r="A67" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" ht="73.5" spans="1:2">
-      <c r="A70" s="44" t="s">
-        <v>335</v>
+      <c r="A70" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:1">
       <c r="A72" s="34" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>339</v>
+      <c r="A73" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>341</v>
+      <c r="A74" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>343</v>
+      <c r="A75" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="44" t="s">
-        <v>344</v>
+      <c r="A76" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="44" t="s">
-        <v>346</v>
+      <c r="A77" s="42" t="s">
+        <v>360</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>349</v>
+      <c r="A78" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="B79" s="42" t="s">
-        <v>351</v>
+      <c r="A79" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="44" t="s">
-        <v>352</v>
+      <c r="A80" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -11593,8 +12439,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:B56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11606,456 +12452,456 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="34" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:2">
       <c r="A2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>356</v>
+        <v>369</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3" ht="229.5" spans="1:3">
       <c r="A3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>359</v>
+        <v>371</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" ht="49.5" spans="1:2">
-      <c r="A4" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>361</v>
+      <c r="A4" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
-      <c r="A5" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>363</v>
+      <c r="A5" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
-      <c r="A6" s="36" t="s">
-        <v>364</v>
+      <c r="A6" s="29" t="s">
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>367</v>
+      <c r="A7" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
-      <c r="A9" s="36" t="s">
-        <v>370</v>
+      <c r="A9" s="29" t="s">
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>381</v>
+        <v>394</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="15" s="33" customFormat="1" ht="5" customHeight="1"/>
     <row r="16" ht="108" spans="1:2">
-      <c r="A16" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>383</v>
+      <c r="A16" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="17" ht="108" spans="1:2">
-      <c r="A17" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>385</v>
+      <c r="A17" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:3">
       <c r="A18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>388</v>
+        <v>400</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="19" ht="25.5" spans="1:3">
       <c r="A19" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="39"/>
+        <v>403</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="39"/>
+        <v>406</v>
+      </c>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" s="39"/>
+        <v>408</v>
+      </c>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
-      </c>
-      <c r="C22" s="39"/>
+        <v>410</v>
+      </c>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" ht="37.5" spans="1:3">
       <c r="A23" t="s">
-        <v>397</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="39"/>
+        <v>411</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" ht="49.5" spans="1:3">
       <c r="A24" t="s">
-        <v>399</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="C24" s="39"/>
+        <v>413</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" ht="108" spans="1:2">
-      <c r="A25" s="36" t="s">
-        <v>401</v>
+      <c r="A25" s="29" t="s">
+        <v>415</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" s="33" customFormat="1" ht="5" customHeight="1"/>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
-      <c r="A28" s="36" t="s">
-        <v>405</v>
+      <c r="A28" s="29" t="s">
+        <v>419</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>412</v>
+      <c r="A31" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B32" t="s">
-        <v>414</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>388</v>
+        <v>428</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B33" t="s">
-        <v>416</v>
-      </c>
-      <c r="C33" s="39"/>
+        <v>430</v>
+      </c>
+      <c r="C33" s="37"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B34" t="s">
-        <v>418</v>
-      </c>
-      <c r="C34" s="39"/>
+        <v>432</v>
+      </c>
+      <c r="C34" s="37"/>
     </row>
     <row r="35" ht="25.5" spans="1:3">
       <c r="A35" t="s">
-        <v>419</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="C35" s="39"/>
+        <v>433</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
-        <v>422</v>
-      </c>
-      <c r="C36" s="39"/>
+        <v>436</v>
+      </c>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
-      </c>
-      <c r="C37" s="39"/>
+        <v>438</v>
+      </c>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
-      </c>
-      <c r="C38" s="39"/>
+        <v>440</v>
+      </c>
+      <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B39" t="s">
-        <v>428</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>429</v>
+        <v>442</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
-      </c>
-      <c r="C40" s="41"/>
+        <v>445</v>
+      </c>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
-      </c>
-      <c r="C41" s="41"/>
+        <v>447</v>
+      </c>
+      <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>434</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="C42" s="43"/>
+        <v>448</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" ht="25.5" spans="1:3">
       <c r="A43" t="s">
-        <v>436</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="C43" s="43"/>
+        <v>450</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C43" s="41"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>429</v>
+        <v>453</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
-      </c>
-      <c r="C45" s="41"/>
+        <v>455</v>
+      </c>
+      <c r="C45" s="39"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
-      </c>
-      <c r="C46" s="41"/>
+        <v>457</v>
+      </c>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>444</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="C47" s="41"/>
+        <v>458</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" ht="54" spans="1:2">
-      <c r="A48" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>447</v>
+      <c r="A48" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
-      <c r="A49" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>449</v>
+      <c r="A49" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="50" ht="37.5" spans="1:2">
       <c r="A50" t="s">
-        <v>450</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>451</v>
+        <v>464</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B51" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>458</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>459</v>
+        <v>472</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="44" t="s">
-        <v>460</v>
+      <c r="A56" s="42" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -12078,8 +12924,8 @@
   <sheetPr/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -12091,7 +12937,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -12100,7 +12946,7 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -12109,106 +12955,106 @@
     </row>
     <row r="3" ht="37.5" spans="1:3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -12217,7 +13063,7 @@
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -12226,40 +13072,40 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" ht="61.5" spans="1:3">
       <c r="A17" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" ht="20.25" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -12268,7 +13114,7 @@
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -12277,7 +13123,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -12286,10 +13132,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -12297,21 +13143,21 @@
     </row>
     <row r="23" ht="25.5" spans="1:3">
       <c r="A23" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -12319,21 +13165,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B25" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -12341,28 +13187,28 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="16" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B27" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="16" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B28" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="E28" s="17"/>
     </row>
     <row r="29" ht="81" spans="1:5">
       <c r="A29" s="18" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -12370,10 +13216,10 @@
     </row>
     <row r="30" ht="81" spans="1:5">
       <c r="A30" s="23" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="25"/>
@@ -12381,7 +13227,7 @@
     </row>
     <row r="32" ht="20.25" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -12390,7 +13236,7 @@
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -12399,7 +13245,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -12408,65 +13254,65 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B35" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
@@ -12474,32 +13320,32 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="9" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
@@ -12507,21 +13353,21 @@
     </row>
     <row r="44" ht="37.5" spans="1:3">
       <c r="A44" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="9" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
@@ -12529,76 +13375,76 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B46" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="B47" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="B48" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="B49" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B50" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="B51" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="9" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
@@ -12606,32 +13452,32 @@
     </row>
     <row r="53" ht="37.5" spans="1:3">
       <c r="A53" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" ht="25.5" spans="1:3">
       <c r="A54" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="9" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
@@ -12639,21 +13485,21 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -12661,32 +13507,32 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B58" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B59" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="9" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
@@ -12694,32 +13540,32 @@
     </row>
     <row r="61" ht="25.5" spans="1:3">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B62" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
@@ -12727,40 +13573,40 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="B64" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B65" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B66" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" ht="20.25" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -12769,7 +13615,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -12778,10 +13624,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="9" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
@@ -12789,43 +13635,43 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B71" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B72" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B73" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="9" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -12833,29 +13679,29 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="B75" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="B76" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" ht="20.25" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -12864,7 +13710,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -12873,31 +13719,31 @@
     </row>
     <row r="80" ht="159" spans="1:2">
       <c r="A80" s="29" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" ht="159" spans="1:2">
       <c r="A81" s="29" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" ht="118.5" spans="1:2">
       <c r="A82" s="29" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" ht="20.25" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -12906,7 +13752,7 @@
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -12915,26 +13761,26 @@
     </row>
     <row r="86" ht="25.5" spans="1:2">
       <c r="A86" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" ht="51" spans="1:3">
       <c r="A87" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" ht="20.25" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -12943,7 +13789,7 @@
     </row>
     <row r="90" ht="37" customHeight="1" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -12952,7 +13798,7 @@
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:5">
       <c r="A91" s="30" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="32"/>
@@ -12961,15 +13807,15 @@
     </row>
     <row r="92" ht="25.5" spans="1:2">
       <c r="A92" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" ht="20.25" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -12978,7 +13824,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -12987,10 +13833,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
@@ -12998,13 +13844,13 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B97" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/5-Events and Movement Core 事件和移动核心.xlsx
+++ b/5-Events and Movement Core 事件和移动核心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -233,20 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
-如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0">
+    <comment ref="C44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0">
+    <comment ref="C45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0">
+    <comment ref="C46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,6 +403,58 @@
       </text>
     </comment>
     <comment ref="C51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
+如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
+如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
+如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果放在Notetag中，则效果将出现在所使用的所有事件页中。
+如果放在页面注释中，则仅当该事件页面当前处于活动状态时才会产生效果。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="659">
   <si>
     <t>#5 事件和移动核心</t>
   </si>
@@ -3883,6 +3922,46 @@
 x：地砖范围</t>
   </si>
   <si>
+    <t>&lt;Label Range Type: Square&gt;
+&lt;Label Range Type: Circle&gt;
+&lt;Label Range Type: Diamond&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置标签的可见范围类型。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·Square：以事件为中心的方形范围
+·Circle：以事件为中心的圆形范围
+·Diamond：以事件为中心的菱形范围
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果不使用此标记，请参阅默认插件参数设置。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Label Offset X: +x&gt;
 &lt;Label Offset X: -x&gt;
 &lt;Label Offset Y: +x&gt;
@@ -3940,6 +4019,41 @@
       <t>-请记住，由于这是在改变色调，如果您使用黑白标签，这似乎没有任何效果。
 -使用带有添加颜色的文本代码的标签，如'\C[4]text'
 -这只适用于事件标签的精灵版本，不适用于旧版本。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Location X: +x&gt;
+&lt;Location X: -x&gt;
+&lt;Location Y: +x&gt;
+&lt;Location Y: -x&gt;
+&lt;Location: +x, +y&gt;
+&lt;Location: +x, -y&gt;
+&lt;Location: -x, +y&gt;
+&lt;Location: -x, -y&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按+x和+y（或-x和-y）调整此事件的初始位置。
+这允许您将事件堆叠在一起，甚至将它们移动到地图的各个位置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：要调整初始起始位置的水平平铺的数字。
+y：要调整初始起始位置的垂直平铺的数字。</t>
     </r>
   </si>
   <si>
@@ -4138,6 +4252,110 @@
     </r>
   </si>
   <si>
+    <t>&lt;Picture Type: Enemy&gt;
+&lt;Picture Type: SV Enemy&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Picture Filename: filename&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一起使用！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">将使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/img/enemies/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/img/sv_enemies/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 而不是 /img/pictures/ 从中抓取图片图形。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他与图片图形精灵相关的注释标签将正常应用。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Picture Max Size: x&gt;
 &lt;Picture Scale: y%&gt;</t>
   </si>
@@ -4424,6 +4642,59 @@
     </r>
   </si>
   <si>
+    <t>&lt;Tile Expand Up: x&gt;
+&lt;Tile Expand Down: x&gt;
+&lt;Tile Expand Left: x&gt;
+&lt;Tile Expand Right: x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用于具有平铺图形的事件。从精灵表向上、向下、向左或向右展开图形。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-这不会扩展点击框（hitbox）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+图形将被锚定到其展开的互动程序上。
+这意味着，即使向下展开，实际事件的位置仍将是当前事件的X/Y坐标。它只是更垂直地生长，并且仍然水平居中。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-这主要是为了避免对扩展超过1x1瓦片大小的瓦片使用过多事件。</t>
+    </r>
+  </si>
+  <si>
     <t>Auto Movement Plugin Commands  自动移动</t>
   </si>
   <si>
@@ -5407,14 +5678,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>到期事件分配：</t>
     </r>
     <r>
@@ -7785,6 +8048,15 @@
     <t>可见范围</t>
   </si>
   <si>
+    <t xml:space="preserve">  Range Type:</t>
+  </si>
+  <si>
+    <t>您希望默认标签的可见范围类型是什么？</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
     <t>Event Icon Settings  事件图标设置</t>
   </si>
   <si>
@@ -8686,7 +8958,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8958,6 +9230,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8980,6 +9259,28 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8993,26 +9294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="7"/>
       <name val="宋体"/>
@@ -9020,8 +9301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9035,9 +9316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9999,7 +10279,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12458700" y="5334000"/>
+          <a:off x="12744450" y="5334000"/>
           <a:ext cx="4143375" cy="2371725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10037,7 +10317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12392025" y="10026650"/>
+          <a:off x="12677775" y="10026650"/>
           <a:ext cx="3210560" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10075,7 +10355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="20008850"/>
+          <a:off x="12668250" y="20008850"/>
           <a:ext cx="3895725" cy="2257425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10113,7 +10393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12363450" y="19851370"/>
+          <a:off x="12649200" y="19851370"/>
           <a:ext cx="2743200" cy="1081405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10151,7 +10431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12401550" y="22990175"/>
+          <a:off x="12687300" y="22990175"/>
           <a:ext cx="1365885" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10165,14 +10445,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1304925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10189,7 +10469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12296775" y="24790400"/>
+          <a:off x="12582525" y="25590500"/>
           <a:ext cx="2800350" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11357,16 +11637,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="39.75" customWidth="1"/>
-    <col min="2" max="2" width="94" customWidth="1"/>
+    <col min="2" max="2" width="97.75" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
@@ -11692,7 +11972,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" ht="108" spans="1:3">
+    <row r="32" ht="63" spans="1:3">
       <c r="A32" s="29" t="s">
         <v>216</v>
       </c>
@@ -11703,7 +11983,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" ht="49.5" spans="1:3">
+    <row r="33" ht="108" spans="1:3">
       <c r="A33" s="29" t="s">
         <v>218</v>
       </c>
@@ -11714,7 +11994,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="49.5" spans="1:3">
       <c r="A34" s="29" t="s">
         <v>220</v>
       </c>
@@ -11725,18 +12005,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" ht="54" spans="1:3">
+    <row r="35" ht="135" spans="1:3">
       <c r="A35" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" ht="40.5" spans="1:3">
+    <row r="36" spans="1:3">
       <c r="A36" s="29" t="s">
         <v>224</v>
       </c>
@@ -11747,19 +12027,19 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" ht="135" spans="1:3">
+    <row r="37" ht="54" spans="1:3">
       <c r="A37" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="26" t="s">
         <v>227</v>
       </c>
       <c r="C37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" ht="39" spans="1:3">
-      <c r="A38" t="s">
+    <row r="38" ht="40.5" spans="1:3">
+      <c r="A38" s="29" t="s">
         <v>228</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -11769,8 +12049,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" ht="25.5" spans="1:3">
-      <c r="A39" t="s">
+    <row r="39" ht="135" spans="1:3">
+      <c r="A39" s="29" t="s">
         <v>230</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -11780,7 +12060,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" ht="61.5" spans="1:3">
+    <row r="40" ht="39" spans="1:3">
       <c r="A40" t="s">
         <v>232</v>
       </c>
@@ -11791,8 +12071,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:3">
-      <c r="A41" s="29" t="s">
+    <row r="41" ht="25.5" spans="1:3">
+      <c r="A41" t="s">
         <v>234</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -11802,8 +12082,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" ht="121.5" spans="1:3">
-      <c r="A42" s="29" t="s">
+    <row r="42" ht="61.5" spans="1:3">
+      <c r="A42" t="s">
         <v>236</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -11813,8 +12093,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" ht="37.5" spans="1:3">
-      <c r="A43" t="s">
+    <row r="43" ht="39" spans="1:3">
+      <c r="A43" s="29" t="s">
         <v>238</v>
       </c>
       <c r="B43" s="52" t="s">
@@ -11824,8 +12104,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" ht="52.5" spans="1:3">
-      <c r="A44" t="s">
+    <row r="44" ht="27" spans="1:3">
+      <c r="A44" s="29" t="s">
         <v>240</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -11835,8 +12115,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:3">
-      <c r="A45" t="s">
+    <row r="45" ht="121.5" spans="1:3">
+      <c r="A45" s="29" t="s">
         <v>242</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -11846,30 +12126,30 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" ht="27" spans="1:3">
+    <row r="46" ht="37.5" spans="1:3">
       <c r="A46" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" ht="52.5" spans="1:3">
       <c r="A47" t="s">
         <v>246</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C47" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" ht="54" spans="1:3">
-      <c r="A48" s="29" t="s">
+    <row r="48" ht="27" spans="1:3">
+      <c r="A48" t="s">
         <v>248</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -11879,29 +12159,29 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="27" spans="1:3">
       <c r="A49" t="s">
         <v>250</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" ht="108" spans="1:3">
-      <c r="A50" s="29" t="s">
+      <c r="C49" s="56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>252</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" t="s">
         <v>253</v>
       </c>
       <c r="C50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" ht="135" spans="1:3">
+    <row r="51" ht="54" spans="1:3">
       <c r="A51" s="29" t="s">
         <v>254</v>
       </c>
@@ -11909,6 +12189,50 @@
         <v>255</v>
       </c>
       <c r="C51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" ht="108" spans="1:3">
+      <c r="A53" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" ht="135" spans="1:3">
+      <c r="A54" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" ht="67.5" spans="1:3">
+      <c r="A55" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
         <v>182</v>
       </c>
     </row>
@@ -11929,8 +12253,8 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11942,128 +12266,128 @@
   <sheetData>
     <row r="1" s="43" customFormat="1" ht="18.75" spans="1:1">
       <c r="A1" s="44" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="42" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" s="43" customFormat="1" ht="18.75" spans="1:1">
       <c r="A4" s="44" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" ht="90" spans="1:2">
       <c r="A5" s="42" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" s="43" customFormat="1" ht="18.75" spans="1:1">
       <c r="A7" s="44" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="42" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:1">
       <c r="A10" s="34" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:2">
       <c r="A11" s="42" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:2">
       <c r="A12" s="42" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" ht="25.5" spans="1:2">
       <c r="A13" s="42" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="42" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:1">
       <c r="A16" s="34" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="42" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="42" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:1">
       <c r="A20" s="34" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:2">
       <c r="A21" s="42" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" ht="37.5" spans="1:2">
       <c r="A22" s="42" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" ht="121.5" spans="1:2">
       <c r="A23" s="42" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -12072,115 +12396,115 @@
     </row>
     <row r="25" customFormat="1" ht="18.75" spans="1:1">
       <c r="A25" s="34" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="83" customHeight="1" spans="1:3">
       <c r="A26" s="45" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="47" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" ht="49.5" spans="1:3">
       <c r="A27" s="42" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" ht="63" spans="1:3">
       <c r="A28" s="42" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C28" s="49"/>
     </row>
     <row r="29" ht="63" spans="1:3">
       <c r="A29" s="42" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C29" s="49"/>
     </row>
     <row r="30" ht="75" spans="1:3">
       <c r="A30" s="42" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C30" s="49"/>
     </row>
     <row r="32" ht="18.75" spans="1:1">
       <c r="A32" s="34" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="42" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" ht="39" spans="1:2">
       <c r="A34" s="42" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="42" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="42" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" ht="37.5" spans="1:2">
       <c r="A37" s="42" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="42" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="42" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -12188,115 +12512,115 @@
     </row>
     <row r="41" customFormat="1" ht="18.75" spans="1:1">
       <c r="A41" s="34" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" ht="25.5" spans="1:2">
       <c r="A42" s="42" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" ht="37.5" spans="1:2">
       <c r="A43" s="42" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" ht="25.5" spans="1:2">
       <c r="A44" s="42" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="42" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:1">
       <c r="A47" s="34" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" ht="61.5" spans="1:2">
       <c r="A48" s="42" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" ht="61.5" spans="1:2">
       <c r="A49" s="42" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:1">
       <c r="A51" s="34" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" ht="61.5" spans="1:2">
       <c r="A52" s="42" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:1">
       <c r="A54" s="34" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" ht="112.5" spans="1:2">
       <c r="A55" s="42" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" ht="49.5" spans="1:2">
       <c r="A56" s="42" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:1">
       <c r="A58" s="34" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" ht="61.5" spans="1:2">
       <c r="A59" s="42" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="42" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -12304,118 +12628,118 @@
     </row>
     <row r="62" ht="18.75" spans="1:1">
       <c r="A62" s="34" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" ht="25.5" spans="1:2">
       <c r="A63" s="42" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:1">
       <c r="A65" s="34" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" ht="61.5" spans="1:2">
       <c r="A66" s="42" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" ht="61.5" spans="1:2">
       <c r="A67" s="42" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:1">
       <c r="A69" s="34" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" ht="73.5" spans="1:2">
       <c r="A70" s="42" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:1">
       <c r="A72" s="34" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="42" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="42" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="42" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="42" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="42" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="42" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="42" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -12439,8 +12763,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -12452,456 +12776,456 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="34" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" ht="229.5" spans="1:3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" ht="49.5" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="35" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="29" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" s="33" customFormat="1" ht="5" customHeight="1"/>
     <row r="16" ht="108" spans="1:2">
       <c r="A16" s="29" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" ht="108" spans="1:2">
       <c r="A17" s="29" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:3">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" ht="25.5" spans="1:3">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C22" s="37"/>
     </row>
     <row r="23" ht="37.5" spans="1:3">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C23" s="37"/>
     </row>
     <row r="24" ht="49.5" spans="1:3">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C24" s="37"/>
     </row>
     <row r="25" ht="108" spans="1:2">
       <c r="A25" s="29" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" s="33" customFormat="1" ht="5" customHeight="1"/>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="29" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B28" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B29" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="38" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C33" s="37"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B34" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C34" s="37"/>
     </row>
     <row r="35" ht="25.5" spans="1:3">
       <c r="A35" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B36" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B37" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B40" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B41" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C42" s="41"/>
     </row>
     <row r="43" ht="25.5" spans="1:3">
       <c r="A43" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C43" s="41"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B44" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C45" s="39"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B46" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C47" s="39"/>
     </row>
     <row r="48" ht="54" spans="1:2">
       <c r="A48" s="29" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="29" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" ht="37.5" spans="1:2">
       <c r="A50" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B53" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="42" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -12922,10 +13246,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -12937,7 +13261,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -12946,7 +13270,7 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -12955,917 +13279,928 @@
     </row>
     <row r="3" ht="37.5" spans="1:3">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" ht="20.25" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>493</v>
-      </c>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" ht="20.25" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" ht="61.5" spans="1:3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" ht="20.25" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:5">
+    </row>
+    <row r="18" ht="61.5" spans="1:3">
+      <c r="A18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" ht="20.25" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" ht="25.5" spans="1:3">
-      <c r="A23" t="s">
-        <v>511</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>516</v>
-      </c>
-      <c r="B25" t="s">
-        <v>517</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+    <row r="22" ht="15" customHeight="1" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
+      <c r="B23" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" ht="25.5" spans="1:3">
+      <c r="A24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="B27" t="s">
-        <v>522</v>
-      </c>
-      <c r="E27" s="17"/>
+      <c r="A27" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="16" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B28" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" ht="81" spans="1:5">
-      <c r="A29" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B29" t="s">
+        <v>535</v>
+      </c>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" ht="81" spans="1:5">
-      <c r="A30" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="32" ht="20.25" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="33" customHeight="1" spans="1:5">
-      <c r="A33" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>532</v>
-      </c>
-      <c r="B35" t="s">
-        <v>533</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="A30" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" ht="81" spans="1:5">
+      <c r="A31" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="33" ht="20.25" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>534</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>535</v>
+        <v>543</v>
+      </c>
+      <c r="B36" t="s">
+        <v>544</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>536</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>537</v>
+        <v>545</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>546</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>546</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>479</v>
-      </c>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>552</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B43" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" ht="37.5" spans="1:3">
+      <c r="A45" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" ht="37.5" spans="1:3">
-      <c r="A44" t="s">
-        <v>552</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B46" t="s">
-        <v>557</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>558</v>
-      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B47" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B48" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B49" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>565</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B50" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B51" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" ht="37.5" spans="1:3">
-      <c r="A53" t="s">
-        <v>574</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" spans="1:3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>580</v>
+      </c>
+      <c r="B52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" ht="37.5" spans="1:3">
       <c r="A54" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>480</v>
-      </c>
-      <c r="B56" t="s">
-        <v>582</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>585</v>
-      </c>
-      <c r="B58" t="s">
-        <v>586</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>479</v>
-      </c>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" spans="1:3">
+      <c r="A55" t="s">
+        <v>588</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B59" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" ht="25.5" spans="1:3">
-      <c r="A61" t="s">
-        <v>532</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>598</v>
+      </c>
+      <c r="B60" t="s">
+        <v>599</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" ht="25.5" spans="1:3">
       <c r="A62" t="s">
-        <v>593</v>
-      </c>
-      <c r="B62" t="s">
-        <v>594</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>598</v>
-      </c>
-      <c r="B64" t="s">
-        <v>599</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63" t="s">
+        <v>605</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B65" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B66" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="68" ht="20.25" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>615</v>
+      </c>
+      <c r="B67" t="s">
+        <v>616</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="69" ht="20.25" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>611</v>
-      </c>
-      <c r="B71" t="s">
-        <v>612</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="A70" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B72" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B73" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>619</v>
-      </c>
-      <c r="B75" t="s">
-        <v>620</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>479</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>626</v>
+      </c>
+      <c r="B74" t="s">
+        <v>627</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B76" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="78" ht="20.25" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" ht="159" spans="1:2">
-      <c r="A80" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>626</v>
-      </c>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>632</v>
+      </c>
+      <c r="B77" t="s">
+        <v>633</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79" ht="20.25" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" ht="159" spans="1:2">
       <c r="A81" s="29" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="82" ht="118.5" spans="1:2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" ht="159" spans="1:2">
       <c r="A82" s="29" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="84" ht="20.25" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" ht="30" customHeight="1" spans="1:5">
-      <c r="A85" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" ht="25.5" spans="1:2">
-      <c r="A86" t="s">
-        <v>633</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="87" ht="51" spans="1:3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" ht="118.5" spans="1:2">
+      <c r="A83" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85" ht="20.25" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" ht="30" customHeight="1" spans="1:5">
+      <c r="A86" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" ht="25.5" spans="1:2">
       <c r="A87" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="89" ht="20.25" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" ht="37" customHeight="1" spans="1:5">
-      <c r="A90" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" ht="42" customHeight="1" spans="1:5">
-      <c r="A91" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-    </row>
-    <row r="92" ht="25.5" spans="1:2">
-      <c r="A92" t="s">
-        <v>633</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="94" ht="20.25" spans="1:5">
-      <c r="A94" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="88" ht="51" spans="1:3">
+      <c r="A88" t="s">
+        <v>646</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90" ht="20.25" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" ht="37" customHeight="1" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" ht="42" customHeight="1" spans="1:5">
+      <c r="A92" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+    </row>
+    <row r="93" ht="25.5" spans="1:2">
+      <c r="A93" t="s">
+        <v>644</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="95" ht="20.25" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>645</v>
-      </c>
-      <c r="B97" t="s">
-        <v>646</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>647</v>
+      <c r="A96" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>656</v>
+      </c>
+      <c r="B98" t="s">
+        <v>657</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A86:E86"/>
     <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A96:E96"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
